--- a/documents/kanagawa.xlsx
+++ b/documents/kanagawa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b3611dc6b1e3870/compsys2018-6/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoya\OneDrive\compsys2018-6\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD1118FB-2F89-44E7-A7B3-5BC1C4B40593}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2318B403-E4AA-4AAA-B2DC-E75B2778EC9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8340" xr2:uid="{3A15FC2D-AD86-481D-9F75-7BAB0D5256BA}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20880" windowHeight="8340" xr2:uid="{3A15FC2D-AD86-481D-9F75-7BAB0D5256BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$2:$E$75</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$G$2:$G$35</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$G$2:$G$35</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$G$2:$G$35</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$G$2:$G$35</definedName>
@@ -32,18 +32,18 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$76</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">整数</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">整数</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -52,7 +52,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">73786976294838200000</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">3600</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.1</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -149,8 +158,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464CA54B-7581-46E4-BEAE-67D9DADDCB4C}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -510,11 +522,11 @@
       </c>
       <c r="C2">
         <f>VLOOKUP(A2,$F$2:$G$35,2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(B2,$F$2:$G$35,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>IF(NOT(C2=D2),0,1)</f>
@@ -524,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -536,7 +548,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">VLOOKUP(A3,$F$2:$G$35,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">VLOOKUP(B3,$F$2:$G$35,2)</f>
@@ -550,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -562,21 +574,21 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -588,11 +600,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
@@ -602,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -614,11 +626,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
@@ -628,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -640,21 +652,21 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -666,11 +678,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
@@ -680,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -692,11 +704,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
@@ -706,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -718,11 +730,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
@@ -732,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -744,11 +756,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
@@ -758,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -770,11 +782,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
@@ -784,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -796,11 +808,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
@@ -810,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -822,11 +834,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
@@ -836,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -848,11 +860,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
@@ -862,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -874,11 +886,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
@@ -900,15 +912,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -926,11 +938,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
@@ -952,21 +964,21 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -978,11 +990,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
@@ -992,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1004,11 +1016,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
@@ -1030,11 +1042,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
@@ -1044,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1056,11 +1068,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
@@ -1070,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1082,11 +1094,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
@@ -1108,7 +1120,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -1134,7 +1146,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -1148,7 +1160,7 @@
         <v>24</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1160,7 +1172,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -1168,13 +1180,13 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1186,11 +1198,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
@@ -1200,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1212,11 +1224,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
@@ -1226,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1238,11 +1250,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
@@ -1252,7 +1264,7 @@
         <v>28</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -1264,11 +1276,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
@@ -1278,7 +1290,7 @@
         <v>29</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -1290,11 +1302,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
@@ -1304,7 +1316,7 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1316,11 +1328,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
@@ -1330,7 +1342,7 @@
         <v>31</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1342,11 +1354,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
@@ -1356,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -1368,21 +1380,18 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -1394,11 +1403,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
@@ -1414,15 +1423,15 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1434,11 +1443,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
@@ -1454,11 +1463,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
@@ -1474,11 +1483,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
@@ -1494,15 +1503,15 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -1514,7 +1523,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -1522,7 +1531,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -1534,11 +1543,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
@@ -1554,15 +1563,15 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -1574,7 +1583,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -1594,11 +1603,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
@@ -1614,7 +1623,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -1622,7 +1631,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -1634,11 +1643,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
@@ -1654,11 +1663,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
@@ -1678,7 +1687,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
@@ -1698,7 +1707,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
@@ -1718,7 +1727,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
@@ -1738,7 +1747,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
@@ -1778,11 +1787,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -1818,7 +1827,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
@@ -1858,11 +1867,11 @@
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -1874,7 +1883,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
@@ -1882,7 +1891,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -1894,15 +1903,15 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -1914,11 +1923,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
@@ -1934,7 +1943,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
@@ -1954,11 +1963,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
@@ -1978,7 +1987,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
@@ -2018,7 +2027,7 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D75" si="4">VLOOKUP(B67,$F$2:$G$35,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E75" si="5">IF(NOT(C67=D67),0,1)</f>
@@ -2038,11 +2047,11 @@
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -2058,7 +2067,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
@@ -2074,15 +2083,15 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2094,11 +2103,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
@@ -2114,15 +2123,15 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2134,11 +2143,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
@@ -2154,11 +2163,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
@@ -2174,15 +2183,21 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E76" s="1">
+        <f>SUM(E2:E75)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
